--- a/Project-Calendar.xlsx
+++ b/Project-Calendar.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20910" windowHeight="10260" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20910" windowHeight="10260" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1_English" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="52">
   <si>
     <t>当前计划目标</t>
   </si>
@@ -96,10 +96,6 @@
     <t>4,5</t>
   </si>
   <si>
-    <t>1，Linux Shell 脚本攻略（296页)                  161231 读完 40pages/Day
-2，利用Python进行数据分析 （451页）      170122 读完 17pages/Day</t>
-  </si>
-  <si>
     <t>BOOK</t>
   </si>
   <si>
@@ -118,9 +114,6 @@
     <t>126 -</t>
   </si>
   <si>
-    <t>- 116</t>
-  </si>
-  <si>
     <t>MOOC</t>
   </si>
   <si>
@@ -134,6 +127,174 @@
   </si>
   <si>
     <t>101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>155</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>184 -</t>
+  </si>
+  <si>
+    <r>
+      <t>213</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -</t>
+    </r>
+  </si>
+  <si>
+    <t>242 -</t>
+  </si>
+  <si>
+    <r>
+      <t>271</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1，Linux Shell 脚本攻略（296页)                  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>170122</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 读完 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pages/Day
+2，利用Python进行数据分析 （451页）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 126</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 135</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,6</t>
+  </si>
+  <si>
+    <t>4,7</t>
+  </si>
+  <si>
+    <t>4,8</t>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 130</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -145,7 +306,7 @@
     <numFmt numFmtId="176" formatCode="yy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="[$-804]aaaa;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -164,6 +325,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -274,7 +443,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -350,6 +519,9 @@
     <xf numFmtId="49" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -371,6 +543,9 @@
     <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -381,6 +556,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -662,7 +840,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -681,38 +859,38 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
       <c r="K2" s="22"/>
     </row>
     <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -764,13 +942,16 @@
         <v>100</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F4" s="20" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="21" t="s">
         <v>12</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
@@ -786,11 +967,17 @@
       <c r="D5" s="21">
         <v>100</v>
       </c>
+      <c r="E5" s="38" t="s">
+        <v>48</v>
+      </c>
       <c r="F5" s="20" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="21" t="s">
         <v>12</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
@@ -806,11 +993,17 @@
       <c r="D6" s="21">
         <v>100</v>
       </c>
+      <c r="E6" s="38" t="s">
+        <v>50</v>
+      </c>
       <c r="F6" s="20" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="21" t="s">
         <v>12</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
@@ -891,7 +1084,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -905,30 +1098,30 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="30" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="31"/>
+      <c r="D2" s="32"/>
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -961,6 +1154,9 @@
       <c r="D4" s="12" t="s">
         <v>23</v>
       </c>
+      <c r="E4" s="12" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
@@ -969,6 +1165,15 @@
       <c r="B5" s="10" t="s">
         <v>14</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
@@ -977,6 +1182,15 @@
       <c r="B6" s="10" t="s">
         <v>15</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
@@ -984,6 +1198,12 @@
       </c>
       <c r="B7" s="10" t="s">
         <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
@@ -1010,6 +1230,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1017,9 +1238,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1037,34 +1258,34 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="13"/>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="35"/>
       <c r="K2" s="16"/>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -1075,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>6</v>
@@ -1084,7 +1305,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>6</v>
@@ -1093,7 +1314,7 @@
         <v>7</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J3" s="15" t="s">
         <v>6</v>
@@ -1110,13 +1331,13 @@
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>31</v>
+      <c r="E4" s="25" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
@@ -1126,6 +1347,15 @@
       <c r="B5" s="10" t="s">
         <v>14</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
@@ -1134,6 +1364,15 @@
       <c r="B6" s="10" t="s">
         <v>15</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
@@ -1142,6 +1381,12 @@
       <c r="B7" s="10" t="s">
         <v>16</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
@@ -1150,6 +1395,12 @@
       <c r="B8" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
@@ -1157,6 +1408,12 @@
       </c>
       <c r="B9" s="10" t="s">
         <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1167,6 +1424,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1174,7 +1432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
@@ -1194,32 +1452,32 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
       <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -1230,7 +1488,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>6</v>
@@ -1239,7 +1497,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>6</v>
@@ -1248,7 +1506,7 @@
         <v>7</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>6</v>
